--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P18_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P18_trail7 Features.xlsx
@@ -2367,7 +2367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2379,28 +2379,26 @@
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2421,115 +2419,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -2546,72 +2534,66 @@
         <v>6.684610875064979e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.0009370892870184798</v>
+        <v>1.921048007872969e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.475636354980026</v>
+        <v>5.162773198201535e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.921048007872969e-06</v>
+        <v>0.03141518050220563</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5.162773198201535e-06</v>
+        <v>0.06832482176461692</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.03141518050220563</v>
+        <v>0.005652822688889542</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.06832482176461692</v>
+        <v>1.307254439939557</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.005652822688889542</v>
+        <v>1.643880246341197</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.257020084359521</v>
+        <v>4.095447797222596</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.643880246341197</v>
+        <v>3.168932564957031e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.095447797222596</v>
+        <v>28213757.18386861</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.168932564957031e-14</v>
+        <v>2.666126355437069e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>28213757.18386861</v>
+        <v>25.2252132387008</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.666126355437069e-06</v>
+        <v>8.187041319459296e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>25.2252132387008</v>
+        <v>6.290322266730399</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>8.187041319459296e-05</v>
+        <v>1.497269619544946</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>6.290322266730399</v>
+        <v>0.003239461135283455</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.497269619544946</v>
+        <v>3.722221518415214</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.003239461135283455</v>
+        <v>0.910484492765279</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.722221518415214</v>
+        <v>1.710844832651579</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.910484492765279</v>
+        <v>17</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.710844832651579</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.29400465259279</v>
       </c>
     </row>
@@ -2626,72 +2608,66 @@
         <v>6.683769743885786e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.0673373346288912</v>
+        <v>1.921048007872969e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.471043859971024</v>
+        <v>5.184151693150844e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.921048007872969e-06</v>
+        <v>0.03247286457083269</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>5.184151693150844e-06</v>
+        <v>0.0659226096937834</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.03247286457083269</v>
+        <v>0.005398833633950412</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.0659226096937834</v>
+        <v>1.328223255353011</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.005398833633950412</v>
+        <v>1.709038017852753</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.271654624209819</v>
+        <v>3.979185756255701</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.709038017852753</v>
+        <v>3.356814634602484e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.979185756255701</v>
+        <v>25874341.84829676</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.356814634602484e-14</v>
+        <v>2.955265705000038e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>25874341.84829676</v>
+        <v>22.47325518622396</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.955265705000038e-06</v>
+        <v>9.018863809498016e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>22.47325518622396</v>
+        <v>7.555993963075601</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>9.018863809498016e-05</v>
+        <v>1.536853458845445</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.555993963075601</v>
+        <v>0.005149143952505181</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.536853458845445</v>
+        <v>3.416456100350894</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.005149143952505181</v>
+        <v>0.9174796309341927</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.416456100350894</v>
+        <v>1.689446920265988</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9174796309341927</v>
+        <v>16</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.689446920265988</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2613879940867653</v>
       </c>
     </row>
@@ -2706,72 +2682,66 @@
         <v>6.652163063236253e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.1333139354620519</v>
+        <v>1.921048007872969e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.447680288048459</v>
+        <v>5.206175038565385e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.921048007872969e-06</v>
+        <v>0.03356016341090234</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>5.206175038565385e-06</v>
+        <v>0.06442477567328139</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.03356016341090234</v>
+        <v>0.00527600811074994</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.06442477567328139</v>
+        <v>1.376038714466352</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.00527600811074994</v>
+        <v>1.639679612930568</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.312572748432398</v>
+        <v>3.77768266313239</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.639679612930568</v>
+        <v>3.724473087503454e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.77768266313239</v>
+        <v>21234229.40793919</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.724473087503454e-14</v>
+        <v>3.795825061160093e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>21234229.40793919</v>
+        <v>16.79336976202902</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.795825061160093e-06</v>
+        <v>0.0001015681121568219</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>16.79336976202902</v>
+        <v>7.249228691426093</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001015681121568219</v>
+        <v>1.415739054414823</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.249228691426093</v>
+        <v>0.00533753802050928</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.415739054414823</v>
+        <v>3.361440781354725</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.00533753802050928</v>
+        <v>0.9238318885230842</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.361440781354725</v>
+        <v>1.721632102094862</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9238318885230842</v>
+        <v>11</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.721632102094862</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2244482067050734</v>
       </c>
     </row>
@@ -2786,72 +2756,66 @@
         <v>6.593251433881974e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.197346059817362</v>
+        <v>1.921048007872969e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.409163360755263</v>
+        <v>5.228851797803754e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.921048007872969e-06</v>
+        <v>0.03491400852847962</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>5.228851797803754e-06</v>
+        <v>0.06330936413652311</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.03491400852847962</v>
+        <v>0.005226739432254564</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.06330936413652311</v>
+        <v>1.459743232844409</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.005226739432254564</v>
+        <v>1.689302610438014</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.380802634244171</v>
+        <v>3.397423124171501</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.689302610438014</v>
+        <v>4.084591328555652e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.397423124171501</v>
+        <v>16225218.42094715</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.084591328555652e-14</v>
+        <v>5.852131162321687e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>16225218.42094715</v>
+        <v>10.75300170908675</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>5.852131162321687e-06</v>
+        <v>0.0001110724552689376</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>10.75300170908675</v>
+        <v>7.234817222007064</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001110724552689376</v>
+        <v>1.363644388570151</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.234817222007064</v>
+        <v>0.00581381890190723</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.363644388570151</v>
+        <v>3.297044715870107</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.00581381890190723</v>
+        <v>0.9351401786693609</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.297044715870107</v>
+        <v>1.817527734487666</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9351401786693609</v>
+        <v>9</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.817527734487666</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2077839635436064</v>
       </c>
     </row>
@@ -2866,72 +2830,66 @@
         <v>6.511555044300417e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.2589606104070698</v>
+        <v>1.921048007872969e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.359255017993358</v>
+        <v>5.2522122052527e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.921048007872969e-06</v>
+        <v>0.03634508465668349</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5.2522122052527e-06</v>
+        <v>0.06298549911063409</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.03634508465668349</v>
+        <v>0.005288157101516348</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.06298549911063409</v>
+        <v>1.484608804318181</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.005288157101516348</v>
+        <v>1.71636484536676</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.401926883810498</v>
+        <v>3.322474174423136</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.71636484536676</v>
+        <v>4.279957729910314e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.322474174423136</v>
+        <v>13596724.03108763</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4.279957729910314e-14</v>
+        <v>7.594891866710156e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>13596724.03108763</v>
+        <v>7.912396562262301</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>7.594891866710156e-06</v>
+        <v>0.000107644665547302</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>7.912396562262301</v>
+        <v>7.6534423116023</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.000107644665547302</v>
+        <v>1.2857994092509</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.6534423116023</v>
+        <v>0.006305305576189864</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.2857994092509</v>
+        <v>3.299883891979252</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.006305305576189864</v>
+        <v>0.9380445401821379</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.299883891979252</v>
+        <v>1.852049984526739</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9380445401821379</v>
+        <v>8</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.852049984526739</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2116208060283362</v>
       </c>
     </row>
@@ -2946,72 +2904,66 @@
         <v>6.411630980360312e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.3183817112670882</v>
+        <v>1.921048007872969e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.30015938186555</v>
+        <v>5.27608908610897e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.921048007872969e-06</v>
+        <v>0.03744881510737924</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>5.27608908610897e-06</v>
+        <v>0.06344156224771939</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.03744881510737924</v>
+        <v>0.005427287400730753</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.06344156224771939</v>
+        <v>1.473483683899319</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.005427287400730753</v>
+        <v>1.572359624038379</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.392864289650733</v>
+        <v>3.279287224969777</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.572359624038379</v>
+        <v>4.393430829460268e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.279287224969777</v>
+        <v>12861738.97371403</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4.393430829460268e-14</v>
+        <v>7.925813380549166e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>12861738.97371403</v>
+        <v>7.26780348851566</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>7.925813380549166e-06</v>
+        <v>0.0001002351432016133</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>7.26780348851566</v>
+        <v>9.038662190613405</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001002351432016133</v>
+        <v>1.402786898794866</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.038662190613405</v>
+        <v>0.008188952011140014</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.402786898794866</v>
+        <v>3.36430608250523</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.008188952011140014</v>
+        <v>0.9375187320884292</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.36430608250523</v>
+        <v>1.850721160373502</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9375187320884292</v>
+        <v>8</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.850721160373502</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2279902669880376</v>
       </c>
     </row>
@@ -3026,72 +2978,66 @@
         <v>6.29235246093105e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.3747004704605896</v>
+        <v>1.921048007872969e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.232508747342896</v>
+        <v>5.300052052185562e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.921048007872969e-06</v>
+        <v>0.03780452437022391</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>5.300052052185562e-06</v>
+        <v>0.06514345791803071</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.03780452437022391</v>
+        <v>0.005672491243485176</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.06514345791803071</v>
+        <v>1.48550656037978</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.005672491243485176</v>
+        <v>1.512733990422164</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.401300904985322</v>
+        <v>3.190641740799903</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.512733990422164</v>
+        <v>4.275226964222141e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.190641740799903</v>
+        <v>13308739.39697687</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>4.275226964222141e-14</v>
+        <v>7.71983713124479e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>13308739.39697687</v>
+        <v>7.57239077519653</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>7.71983713124479e-06</v>
+        <v>0.0001181234967480475</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>7.57239077519653</v>
+        <v>10.48858330258032</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001181234967480475</v>
+        <v>1.44117482711487</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.48858330258032</v>
+        <v>0.0129948107281735</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.44117482711487</v>
+        <v>3.341399926767652</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.0129948107281735</v>
+        <v>0.9409200586555673</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.341399926767652</v>
+        <v>1.879682693689419</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9409200586555673</v>
+        <v>8</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.879682693689419</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2217718993679832</v>
       </c>
     </row>
@@ -3106,72 +3052,66 @@
         <v>6.150568434036652e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.4255512579983724</v>
+        <v>1.921048007872969e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.157646712770733</v>
+        <v>5.323511748606585e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.921048007872969e-06</v>
+        <v>0.03749810238150591</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>5.323511748606585e-06</v>
+        <v>0.06847066623053211</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.03749810238150591</v>
+        <v>0.006093723664698527</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.06847066623053211</v>
+        <v>1.478074276254189</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.006093723664698527</v>
+        <v>1.704852795175501</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.393460692653879</v>
+        <v>3.276459732230276</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.704852795175501</v>
+        <v>4.054203934934736e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.276459732230276</v>
+        <v>13421386.28142046</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.054203934934736e-14</v>
+        <v>7.590952595650202e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>13421386.28142046</v>
+        <v>7.302983893209614</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>7.590952595650202e-06</v>
+        <v>0.0001395659816829273</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>7.302983893209614</v>
+        <v>9.558141556345781</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001395659816829273</v>
+        <v>1.599837062533528</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.558141556345781</v>
+        <v>0.01275047872576293</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.599837062533528</v>
+        <v>3.30926295672895</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01275047872576293</v>
+        <v>0.9402024179197168</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.30926295672895</v>
+        <v>1.867879246836722</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9402024179197168</v>
+        <v>8</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.867879246836722</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1919955514527032</v>
       </c>
     </row>
@@ -3186,72 +3126,66 @@
         <v>5.987088966691744e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.4684110093627296</v>
+        <v>1.921048007872969e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.079329942457736</v>
+        <v>5.346123917664675e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.921048007872969e-06</v>
+        <v>0.03694047008097125</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>5.346123917664675e-06</v>
+        <v>0.07252127346260419</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.03694047008097125</v>
+        <v>0.006623409158765522</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.07252127346260419</v>
+        <v>1.481938448753507</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.006623409158765522</v>
+        <v>1.539908481591966</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.400268243846033</v>
+        <v>3.298356175255725</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.539908481591966</v>
+        <v>4.000554190602562e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.298356175255725</v>
+        <v>13385147.62604431</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>4.000554190602562e-14</v>
+        <v>7.576064535993877e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>13385147.62604431</v>
+        <v>7.167479978788107</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>7.576064535993877e-06</v>
+        <v>0.0001252744867839087</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>7.167479978788107</v>
+        <v>8.972284688735314</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001252744867839087</v>
+        <v>1.317565977741797</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.972284688735314</v>
+        <v>0.01008483327254496</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.317565977741797</v>
+        <v>3.20356702120832</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01008483327254496</v>
+        <v>0.9394931079252427</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.20356702120832</v>
+        <v>1.861420451102114</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9394931079252427</v>
+        <v>6</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.861420451102114</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1912125804637181</v>
       </c>
     </row>
@@ -3266,72 +3200,66 @@
         <v>5.807238070948833e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.5021730089995396</v>
+        <v>1.91120033162189e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.001045099253576</v>
+        <v>5.367698730131768e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.91120033162189e-06</v>
+        <v>0.03614244778128243</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>5.367698730131768e-06</v>
+        <v>0.07677193518004097</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.03614244778128243</v>
+        <v>0.007199745149680747</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.07677193518004097</v>
+        <v>1.478947437035793</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.007199745149680747</v>
+        <v>1.492844698140821</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.397558455564576</v>
+        <v>3.430341892775435</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.492844698140821</v>
+        <v>3.69862623798248e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.430341892775435</v>
+        <v>14285528.59171454</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.69862623798248e-14</v>
+        <v>7.076026136600919e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>14285528.59171454</v>
+        <v>7.5480205812846</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>7.076026136600919e-06</v>
+        <v>0.000139789237679622</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>7.5480205812846</v>
+        <v>9.49709155769164</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.000139789237679622</v>
+        <v>1.188834362948337</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.49709155769164</v>
+        <v>0.01260825507333888</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.188834362948337</v>
+        <v>2.869791594643928</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01260825507333888</v>
+        <v>0.9396876946598612</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.869791594643928</v>
+        <v>1.894987867041477</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9396876946598612</v>
+        <v>6</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.894987867041477</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1852445951517191</v>
       </c>
     </row>
@@ -3346,72 +3274,66 @@
         <v>5.619209533211516e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.5278466658834718</v>
+        <v>1.875605098336419e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.9221732586692131</v>
+        <v>5.388026033812808e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.875605098336419e-06</v>
+        <v>0.03486602611467396</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>5.388026033812808e-06</v>
+        <v>0.08078955792301841</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.03486602611467396</v>
+        <v>0.007741774719059283</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.08078955792301841</v>
+        <v>1.534252940991164</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.007741774719059283</v>
+        <v>1.562193258771272</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.4511848220785</v>
+        <v>3.503978358435237</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.562193258771272</v>
+        <v>3.544805657367636e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.503978358435237</v>
+        <v>14277761.87664821</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3.544805657367636e-14</v>
+        <v>7.394718412801725e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>14277761.87664821</v>
+        <v>7.22624528894144</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>7.394718412801725e-06</v>
+        <v>0.0001497079916791609</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>7.22624528894144</v>
+        <v>9.096780088041465</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001497079916791609</v>
+        <v>1.221095572688297</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.096780088041465</v>
+        <v>0.0123885470958397</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.221095572688297</v>
+        <v>2.833146057199196</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.0123885470958397</v>
+        <v>0.945835733170454</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.833146057199196</v>
+        <v>1.859721615409226</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.945835733170454</v>
+        <v>5</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.859721615409226</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1697378799352048</v>
       </c>
     </row>
@@ -3426,72 +3348,66 @@
         <v>5.433684754532157e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.5490834362528317</v>
+        <v>1.819970434869488e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.8350500887682841</v>
+        <v>5.406792517281563e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.819970434869488e-06</v>
+        <v>0.0330430102862876</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>5.406792517281563e-06</v>
+        <v>0.08435711697466954</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.0330430102862876</v>
+        <v>0.008207155374268197</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.08435711697466954</v>
+        <v>1.556340734807606</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.008207155374268197</v>
+        <v>1.70517247379308</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.475153247848382</v>
+        <v>3.654675394425128</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.70517247379308</v>
+        <v>3.258499374129791e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.654675394425128</v>
+        <v>15465949.50483815</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>3.258499374129791e-14</v>
+        <v>6.882184376592847e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>15465949.50483815</v>
+        <v>7.794186936244973</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>6.882184376592847e-06</v>
+        <v>0.0001599172275206909</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>7.794186936244973</v>
+        <v>8.626844848856711</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001599172275206909</v>
+        <v>1.369276565411304</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.626844848856711</v>
+        <v>0.01190143219652716</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.369276565411304</v>
+        <v>2.881571016663496</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01190143219652716</v>
+        <v>0.9482127589822728</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.881571016663496</v>
+        <v>1.842620394200104</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9482127589822728</v>
+        <v>5</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.842620394200104</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1569791319458598</v>
       </c>
     </row>
@@ -3506,72 +3422,66 @@
         <v>5.253326830527397e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.5660994307819835</v>
+        <v>1.775300746980117e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.7387927461609145</v>
+        <v>5.424027342597071e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.775300746980117e-06</v>
+        <v>0.03151912448172785</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>5.424027342597071e-06</v>
+        <v>0.08808146660963238</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.03151912448172785</v>
+        <v>0.00875125609645574</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.08808146660963238</v>
+        <v>1.598234431094699</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.00875125609645574</v>
+        <v>1.684595386746402</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.522206184357331</v>
+        <v>3.661330290230246</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.684595386746402</v>
+        <v>3.246664732285941e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.661330290230246</v>
+        <v>15143322.93731778</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>3.246664732285941e-14</v>
+        <v>7.145890846625082e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>15143322.93731778</v>
+        <v>7.445259017897466</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>7.145890846625082e-06</v>
+        <v>0.0001684697199872422</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>7.445259017897466</v>
+        <v>9.092879166540662</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001684697199872422</v>
+        <v>1.368393352360377</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.092879166540662</v>
+        <v>0.01392915251890923</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.368393352360377</v>
+        <v>2.857278526787332</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01392915251890923</v>
+        <v>0.9490268191728295</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.857278526787332</v>
+        <v>1.838638347388658</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9490268191728295</v>
+        <v>3</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.838638347388658</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.153346273823705</v>
       </c>
     </row>
@@ -3586,72 +3496,66 @@
         <v>5.075286189944203e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.5760523871275156</v>
+        <v>1.744179554446112e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.6396166349763726</v>
+        <v>5.440005265359744e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.744179554446112e-06</v>
+        <v>0.03043552013408755</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>5.440005265359744e-06</v>
+        <v>0.09202156493609122</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.03043552013408755</v>
+        <v>0.009393994832146178</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.09202156493609122</v>
+        <v>1.6316532678008</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.009393994832146178</v>
+        <v>1.509491322352356</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.557953255226396</v>
+        <v>4.009653181047765</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.509491322352356</v>
+        <v>2.707083435704189e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.009653181047765</v>
+        <v>17836285.35096813</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.707083435704189e-14</v>
+        <v>6.206255212253459e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>17836285.35096813</v>
+        <v>8.612127780101291</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>6.206255212253459e-06</v>
+        <v>0.0001595842582926551</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>8.612127780101291</v>
+        <v>10.30936002886549</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001595842582926551</v>
+        <v>1.158205988333711</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>10.30936002886549</v>
+        <v>0.01696107843670746</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.158205988333711</v>
+        <v>2.706642342600786</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01696107843670746</v>
+        <v>0.9504935890435643</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.706642342600786</v>
+        <v>1.80715762860247</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9504935890435643</v>
+        <v>3</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.80715762860247</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.171820190259269</v>
       </c>
     </row>
@@ -3666,72 +3570,66 @@
         <v>4.895680136335916e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.5750021024382198</v>
+        <v>1.729329247089453e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.5468704727038003</v>
+        <v>5.455048227147268e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.729329247089453e-06</v>
+        <v>0.03003163292484097</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>5.455048227147268e-06</v>
+        <v>0.09608614066316541</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.03003163292484097</v>
+        <v>0.0101343873026399</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.09608614066316541</v>
+        <v>1.667123719938084</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.0101343873026399</v>
+        <v>1.671864722486673</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.605452324975899</v>
+        <v>4.298834262019856</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.671864722486673</v>
+        <v>2.355124429328034e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.298834262019856</v>
+        <v>20683597.4150047</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.355124429328034e-14</v>
+        <v>5.427805637392622e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>20683597.4150047</v>
+        <v>10.07548613031598</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>5.427805637392622e-06</v>
+        <v>0.000151906617955398</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>10.07548613031598</v>
+        <v>9.521011130290804</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.000151906617955398</v>
+        <v>1.178674085660546</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.521011130290804</v>
+        <v>0.01377028219742015</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.178674085660546</v>
+        <v>2.757027935908317</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01377028219742015</v>
+        <v>0.952363753511476</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.757027935908317</v>
+        <v>1.756097154523767</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.952363753511476</v>
+        <v>3</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.756097154523767</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1766554042605044</v>
       </c>
     </row>
@@ -3746,72 +3644,66 @@
         <v>4.708616840849082e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.5564761173549585</v>
+        <v>1.729329247089453e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.4773911442755976</v>
+        <v>5.469574281072212e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.729329247089453e-06</v>
+        <v>0.03059667558266484</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>5.469574281072212e-06</v>
+        <v>0.1002248365810019</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.03059667558266484</v>
+        <v>0.01098124603330716</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1002248365810019</v>
+        <v>1.688969964688263</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01098124603330716</v>
+        <v>1.545165182011996</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.628458707266292</v>
+        <v>4.274793894681043</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.545165182011996</v>
+        <v>2.38168817049259e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.274793894681043</v>
+        <v>20324633.70309488</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.38168817049259e-14</v>
+        <v>5.54721629530241e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>20324633.70309488</v>
+        <v>9.838533172825203</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>5.54721629530241e-06</v>
+        <v>0.0001455580533686726</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>9.838533172825203</v>
+        <v>8.189623508829538</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001455580533686726</v>
+        <v>1.292315086750736</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.189623508829538</v>
+        <v>0.009762568918542189</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.292315086750736</v>
+        <v>2.903422426259456</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.009762568918542189</v>
+        <v>0.9530064145066076</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.903422426259456</v>
+        <v>1.783548219149897</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9530064145066076</v>
+        <v>2</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.783548219149897</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1758897086530297</v>
       </c>
     </row>
@@ -4188,7 +4080,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.785868350152037</v>
+        <v>1.829786165263674</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.016538782252041</v>
@@ -4277,7 +4169,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.795284163038877</v>
+        <v>1.838996186319804</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.746768562255586</v>
@@ -4366,7 +4258,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.841464321501888</v>
+        <v>1.877977745860625</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.241054544926432</v>
@@ -4455,7 +4347,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.826750845143181</v>
+        <v>1.867467198816458</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.114726203113078</v>
@@ -4544,7 +4436,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.83102826646012</v>
+        <v>1.871679195380226</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.052921195230828</v>
@@ -4633,7 +4525,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.836633925757647</v>
+        <v>1.875894451996185</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.071960169704364</v>
@@ -4722,7 +4614,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.850672527322996</v>
+        <v>1.884208512698959</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.806456591864253</v>
@@ -4811,7 +4703,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.887476435798647</v>
+        <v>1.912582322485926</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.183711019636123</v>
@@ -4900,7 +4792,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.867611358367007</v>
+        <v>1.887431509574239</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.394851364519611</v>
@@ -4989,7 +4881,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.85263942519124</v>
+        <v>1.877788919081828</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.596762088081882</v>
@@ -5078,7 +4970,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.85417468904737</v>
+        <v>1.877589791615287</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.328947261708484</v>
@@ -5167,7 +5059,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.870100972394471</v>
+        <v>1.89258572997968</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.680722741866508</v>
@@ -5256,7 +5148,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.873107379127866</v>
+        <v>1.893194300314649</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.482070924056094</v>
@@ -5345,7 +5237,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.871344960623008</v>
+        <v>1.887356608047729</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.398932541140163</v>
@@ -5434,7 +5326,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.854094892969491</v>
+        <v>1.873899095960409</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.035645304221586</v>
@@ -5523,7 +5415,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.880238354813033</v>
+        <v>1.891080709202264</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.179771356610958</v>
@@ -5612,7 +5504,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.850115017524693</v>
+        <v>1.863197583964477</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.157931962401611</v>
@@ -5701,7 +5593,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.851095455580183</v>
+        <v>1.860590975448125</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.983599504929</v>
@@ -5790,7 +5682,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.861754231781597</v>
+        <v>1.8660236145187</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.265680563072758</v>
@@ -5879,7 +5771,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.843790472665181</v>
+        <v>1.856513633253282</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.396179672954016</v>
@@ -5968,7 +5860,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.848250203536436</v>
+        <v>1.855542021327153</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.981985740706041</v>
@@ -6057,7 +5949,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.854119995358657</v>
+        <v>1.866074951257334</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.183981426438251</v>
@@ -6146,7 +6038,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.827720631617743</v>
+        <v>1.847006707836611</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.964144911772467</v>
@@ -6235,7 +6127,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.857108458177727</v>
+        <v>1.872108026861511</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.870378049983903</v>
@@ -6324,7 +6216,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.85604089169193</v>
+        <v>1.873889976440878</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.274192346452605</v>
@@ -6413,7 +6305,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.852772136802179</v>
+        <v>1.870867768622638</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.029049938864543</v>
@@ -6502,7 +6394,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.849830867041496</v>
+        <v>1.865036549218082</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.274227567569419</v>
@@ -6591,7 +6483,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.818674124900236</v>
+        <v>1.841339602409461</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.104055199637405</v>
@@ -6680,7 +6572,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.801729373185402</v>
+        <v>1.823128498860448</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.935959788575032</v>
@@ -6769,7 +6661,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.777014062976898</v>
+        <v>1.809427753468422</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.848315787159071</v>
@@ -6858,7 +6750,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.770960658095634</v>
+        <v>1.804014688818991</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.073818146540728</v>
@@ -6947,7 +6839,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.773449147047262</v>
+        <v>1.807447786807714</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.03553343378502</v>
@@ -7036,7 +6928,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.767765430888094</v>
+        <v>1.805854518255458</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.780039005298506</v>
@@ -7125,7 +7017,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.782848251789247</v>
+        <v>1.814691283114443</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.79721853851416</v>
@@ -7214,7 +7106,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.779102224154267</v>
+        <v>1.807136279899385</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.960236900706919</v>
@@ -7303,7 +7195,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.754970571436946</v>
+        <v>1.786161546314478</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.180140416303826</v>
@@ -7392,7 +7284,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.750876154890175</v>
+        <v>1.780622313762569</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.739258018180619</v>
@@ -7481,7 +7373,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.768846653638184</v>
+        <v>1.793144556054735</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.816385418969467</v>
@@ -7570,7 +7462,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.766111255453383</v>
+        <v>1.787807109332215</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.746198817755217</v>
@@ -7659,7 +7551,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.768047549287866</v>
+        <v>1.786792501931899</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.702516594590595</v>
@@ -7748,7 +7640,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.767563353480817</v>
+        <v>1.785123915891397</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.932950637880141</v>
@@ -7837,7 +7729,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.766762106208019</v>
+        <v>1.783700056177708</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.754239583426692</v>
@@ -7926,7 +7818,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.791655379122557</v>
+        <v>1.801650653146742</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.071154802839915</v>
@@ -8015,7 +7907,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.806502997871223</v>
+        <v>1.811478304394003</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.800285262377736</v>
@@ -8104,7 +7996,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.842740913225578</v>
+        <v>1.840381484215748</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.293650107015873</v>
@@ -8193,7 +8085,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.850428128385812</v>
+        <v>1.847587458587655</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.328967165239772</v>
@@ -8282,7 +8174,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.871556771060377</v>
+        <v>1.867130460082324</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.920955125327386</v>
@@ -8371,7 +8263,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.86761901750338</v>
+        <v>1.861485805967432</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.916614044405986</v>
@@ -8460,7 +8352,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.856289152044221</v>
+        <v>1.860824423798692</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.889221969446381</v>
@@ -8549,7 +8441,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.856358927386139</v>
+        <v>1.859657977753395</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.871694033116151</v>
@@ -8638,7 +8530,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.879803863896503</v>
+        <v>1.880761541840026</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.441403095311037</v>
@@ -8727,7 +8619,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.881144036573254</v>
+        <v>1.876166761038723</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.333709835036083</v>
@@ -8816,7 +8708,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.850323237766573</v>
+        <v>1.852162400775185</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.576615456884848</v>
@@ -8905,7 +8797,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.850010654662183</v>
+        <v>1.851594519528152</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.14468040881129</v>
@@ -8994,7 +8886,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.849995040298332</v>
+        <v>1.851443756305249</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.990828921100308</v>
@@ -9083,7 +8975,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.840633116906844</v>
+        <v>1.845898879870693</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.572914324273254</v>
@@ -9172,7 +9064,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.837667037942308</v>
+        <v>1.840217615015263</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.466651806140806</v>
@@ -9261,7 +9153,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.833972944232168</v>
+        <v>1.839150917635098</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.927218438493004</v>
@@ -9350,7 +9242,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.852487881891738</v>
+        <v>1.853944001973042</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.48568881878558</v>
@@ -9439,7 +9331,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.848685973877707</v>
+        <v>1.851644154558909</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.28442949950034</v>
@@ -9528,7 +9420,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.848798172096865</v>
+        <v>1.853934472899693</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.919506038228947</v>
@@ -9814,7 +9706,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.490725733018177</v>
+        <v>1.515324590056352</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.793376112248475</v>
@@ -9903,7 +9795,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.493487306721075</v>
+        <v>1.523969764780604</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.373139075779899</v>
@@ -9992,7 +9884,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.505958430332729</v>
+        <v>1.536760641652445</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.460592682650364</v>
@@ -10081,7 +9973,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.49385172721112</v>
+        <v>1.518963172408261</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.707486406264786</v>
@@ -10170,7 +10062,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.501605869589134</v>
+        <v>1.524011566971639</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.655025702539807</v>
@@ -10259,7 +10151,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.499431021839045</v>
+        <v>1.520611095686399</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.590421996717027</v>
@@ -10348,7 +10240,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.538866021522107</v>
+        <v>1.558405352986987</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.370697494477601</v>
@@ -10437,7 +10329,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.508948149449682</v>
+        <v>1.532528761924464</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.844918096571673</v>
@@ -10526,7 +10418,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.500593275429002</v>
+        <v>1.525885601157251</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.771433445142296</v>
@@ -10615,7 +10507,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.49547467414049</v>
+        <v>1.520279993082699</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.778111073738434</v>
@@ -10704,7 +10596,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.5147660406985</v>
+        <v>1.540497807469976</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.828001572986623</v>
@@ -10793,7 +10685,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.508990261605665</v>
+        <v>1.535944395752364</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.776373947424876</v>
@@ -10882,7 +10774,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.487781636171676</v>
+        <v>1.515217778069026</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.787160926642831</v>
@@ -10971,7 +10863,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.490948265601296</v>
+        <v>1.517329355243092</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.831460309982594</v>
@@ -11060,7 +10952,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.494384892604144</v>
+        <v>1.524509165472589</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.779218027289446</v>
@@ -11149,7 +11041,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.508475885557054</v>
+        <v>1.534221615922093</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.614740361511179</v>
@@ -11238,7 +11130,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.521796348190034</v>
+        <v>1.544485149901967</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.783023271299892</v>
@@ -11327,7 +11219,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.517160109276131</v>
+        <v>1.537969429889146</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.969909827885143</v>
@@ -11416,7 +11308,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.532474640254164</v>
+        <v>1.558304368499792</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.880481985893701</v>
@@ -11505,7 +11397,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.528911556496142</v>
+        <v>1.558038175930962</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.023877775824929</v>
@@ -11594,7 +11486,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.521449370465005</v>
+        <v>1.549295282035561</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.003067166646825</v>
@@ -11683,7 +11575,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.475868110737957</v>
+        <v>1.49658885272152</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.216904268726269</v>
@@ -11772,7 +11664,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.470282665464441</v>
+        <v>1.491737064016673</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.101014745241228</v>
@@ -11861,7 +11753,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.483064941770136</v>
+        <v>1.50381510397184</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.088854799009185</v>
@@ -11950,7 +11842,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.482995605519607</v>
+        <v>1.50625928840095</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.099496387359551</v>
@@ -12039,7 +11931,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.486171839553692</v>
+        <v>1.509177900525426</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.211465454340313</v>
@@ -12128,7 +12020,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.502159945380586</v>
+        <v>1.522339207036187</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.227686100976111</v>
@@ -12217,7 +12109,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.510294571435716</v>
+        <v>1.524863768639562</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.152200343654051</v>
@@ -12306,7 +12198,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.506620031925533</v>
+        <v>1.520060608672811</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.101731512427055</v>
@@ -12395,7 +12287,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.49881020602778</v>
+        <v>1.512614236147691</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.181834099833059</v>
@@ -12484,7 +12376,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.507218137267676</v>
+        <v>1.516548006186438</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.106509153424696</v>
@@ -12573,7 +12465,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.50668341510584</v>
+        <v>1.520995742033376</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.163461880701799</v>
@@ -12662,7 +12554,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.522712384270063</v>
+        <v>1.536835156810155</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.086181109771669</v>
@@ -12751,7 +12643,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.520060146458631</v>
+        <v>1.528516322719895</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.086743441742674</v>
@@ -12840,7 +12732,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.511971987916539</v>
+        <v>1.522549994859652</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.065900473327253</v>
@@ -12929,7 +12821,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.515971596166019</v>
+        <v>1.522574590016039</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.209826051519544</v>
@@ -13018,7 +12910,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.592602622219697</v>
+        <v>1.596843238427498</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.985570189513183</v>
@@ -13107,7 +12999,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.599770646437264</v>
+        <v>1.599486097850891</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.472346112587568</v>
@@ -13196,7 +13088,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.554804173544817</v>
+        <v>1.554347304151251</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.327408216026934</v>
@@ -13285,7 +13177,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.461422178744098</v>
+        <v>1.460779208968332</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.838848970537298</v>
@@ -13374,7 +13266,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.446188730433656</v>
+        <v>1.450789016313125</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.831726221343743</v>
@@ -13463,7 +13355,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.436027080037878</v>
+        <v>1.441015388765664</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.797577149683786</v>
@@ -13552,7 +13444,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.437997666441627</v>
+        <v>1.446067438316729</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.808579803888162</v>
@@ -13641,7 +13533,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.439103764761377</v>
+        <v>1.445329503080422</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.789639962272405</v>
@@ -13730,7 +13622,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.449356834126317</v>
+        <v>1.454875359087758</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.796757428316314</v>
@@ -13819,7 +13711,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.453995243980446</v>
+        <v>1.4619530837703</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.764455537104757</v>
@@ -13908,7 +13800,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.458921139062453</v>
+        <v>1.462592502267306</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.792894473960053</v>
@@ -13997,7 +13889,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.446103330204537</v>
+        <v>1.448556367120533</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.783153830498557</v>
@@ -14086,7 +13978,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.427251489507422</v>
+        <v>1.432853482707576</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.779566874404615</v>
@@ -14175,7 +14067,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.418854197588693</v>
+        <v>1.425204364735244</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.750112788851956</v>
@@ -14264,7 +14156,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.421927535192298</v>
+        <v>1.42971970874106</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.761564734386723</v>
@@ -14353,7 +14245,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.420215302309418</v>
+        <v>1.428032115526424</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.750715806457676</v>
@@ -14442,7 +14334,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.43270418123337</v>
+        <v>1.439905781518795</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.747294523268474</v>
@@ -14531,7 +14423,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.446957154032106</v>
+        <v>1.455404325636472</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.649751252364862</v>
@@ -14620,7 +14512,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.569683596981211</v>
+        <v>1.575181509384262</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.387783907442601</v>
@@ -14709,7 +14601,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.573821693849473</v>
+        <v>1.57749325209994</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.813653724085906</v>
@@ -14798,7 +14690,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.585245446577167</v>
+        <v>1.587759256687297</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.730975944281145</v>
@@ -14887,7 +14779,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.577111301970362</v>
+        <v>1.580076555783528</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.771186202561128</v>
@@ -14976,7 +14868,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.577638857050104</v>
+        <v>1.584429272079154</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.016814144104104</v>
@@ -15065,7 +14957,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.570451124098736</v>
+        <v>1.575367393302976</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.968688570617125</v>
@@ -15154,7 +15046,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.547230336419589</v>
+        <v>1.550877307572419</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.38171408062552</v>
@@ -15440,7 +15332,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.872370645146445</v>
+        <v>1.867789093120606</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.93489461166872</v>
@@ -15529,7 +15421,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.877756303328463</v>
+        <v>1.873943580697067</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.851755917145292</v>
@@ -15618,7 +15510,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.884026761311114</v>
+        <v>1.88282547555417</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.5834884068604</v>
@@ -15707,7 +15599,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.876429325992921</v>
+        <v>1.878390972110336</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.952530960797043</v>
@@ -15796,7 +15688,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.870813918302871</v>
+        <v>1.880971959472628</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.240586210927813</v>
@@ -15885,7 +15777,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.870136479388299</v>
+        <v>1.875349609389853</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.37603293174713</v>
@@ -15974,7 +15866,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.874230909512427</v>
+        <v>1.874613604073801</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.631290159524891</v>
@@ -16063,7 +15955,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.879868663158326</v>
+        <v>1.882606567437312</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.250577521750203</v>
@@ -16152,7 +16044,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.871601344825579</v>
+        <v>1.873674196149707</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.592735371517807</v>
@@ -16241,7 +16133,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.868224284095984</v>
+        <v>1.870322525319356</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.614482048358902</v>
@@ -16330,7 +16222,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.871199069303113</v>
+        <v>1.877120526018329</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.626993705951499</v>
@@ -16419,7 +16311,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.87706402220361</v>
+        <v>1.885727429530382</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.808957719761102</v>
@@ -16508,7 +16400,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.873052354850383</v>
+        <v>1.881405251760049</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>5.046190766639533</v>
@@ -16597,7 +16489,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.861911859831946</v>
+        <v>1.868320920755037</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.793735707646873</v>
@@ -16686,7 +16578,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.86346652956673</v>
+        <v>1.868523036743034</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.866914741826993</v>
@@ -16775,7 +16667,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.860594672938932</v>
+        <v>1.861744344911837</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.441833700339317</v>
@@ -16864,7 +16756,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.85567841447346</v>
+        <v>1.859389917460827</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.639481333658533</v>
@@ -16953,7 +16845,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.857633667696744</v>
+        <v>1.861175546325938</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.862773348359524</v>
@@ -17042,7 +16934,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.85908671602322</v>
+        <v>1.861436268436924</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.722237803508224</v>
@@ -17131,7 +17023,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.853426434127565</v>
+        <v>1.85525908434121</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.405985508897666</v>
@@ -17220,7 +17112,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.857463833232416</v>
+        <v>1.859254001419224</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.648108144601045</v>
@@ -17309,7 +17201,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.861979845336655</v>
+        <v>1.866349946099131</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.822720885608423</v>
@@ -17398,7 +17290,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.860815462228361</v>
+        <v>1.86291176006058</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.88929414264785</v>
@@ -17487,7 +17379,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.865409277517764</v>
+        <v>1.870518293199727</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.794953072266813</v>
@@ -17576,7 +17468,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.87373886501239</v>
+        <v>1.878048508380359</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>5.033152112018082</v>
@@ -17665,7 +17557,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.872218803379456</v>
+        <v>1.876574186588716</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.942116547301408</v>
@@ -17754,7 +17646,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.868160583386731</v>
+        <v>1.871787953663716</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.326342458417343</v>
@@ -17843,7 +17735,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.858149484801539</v>
+        <v>1.857408247790558</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.590018047849844</v>
@@ -17932,7 +17824,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.85926868509635</v>
+        <v>1.860213142352558</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.955795650591885</v>
@@ -18021,7 +17913,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.861669599072934</v>
+        <v>1.859943113212472</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.29443262067881</v>
@@ -18110,7 +18002,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.872462501768429</v>
+        <v>1.869013265879654</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.225646058951441</v>
@@ -18199,7 +18091,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.865912939822439</v>
+        <v>1.857798966063367</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.165403715055365</v>
@@ -18288,7 +18180,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.8624483321109</v>
+        <v>1.849904179281867</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.521531452586337</v>
@@ -18377,7 +18269,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.85824139232275</v>
+        <v>1.84755963320188</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.306349069477708</v>
@@ -18466,7 +18358,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.867677963209335</v>
+        <v>1.852280175363541</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.437778609649236</v>
@@ -18555,7 +18447,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.858896545724374</v>
+        <v>1.839521332675152</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.15907911990598</v>
@@ -18644,7 +18536,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.859235180311463</v>
+        <v>1.841658792528327</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.728988062093057</v>
@@ -18733,7 +18625,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.849763845858849</v>
+        <v>1.831392488795058</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.249301633243883</v>
@@ -18822,7 +18714,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.850908898974735</v>
+        <v>1.834651034817938</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.130989507206702</v>
@@ -18911,7 +18803,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.847723215806203</v>
+        <v>1.83162728171297</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.012667921874595</v>
@@ -19000,7 +18892,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.847876991617099</v>
+        <v>1.829105932689852</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.912742085625228</v>
@@ -19089,7 +18981,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.847322400979647</v>
+        <v>1.822828067071314</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.858312323471616</v>
@@ -19178,7 +19070,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.855103049556861</v>
+        <v>1.83636288489985</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.293362736768274</v>
@@ -19267,7 +19159,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.858390537440244</v>
+        <v>1.839259286082948</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.96272942947743</v>
@@ -19356,7 +19248,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.853961188496648</v>
+        <v>1.837441200594321</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.454927715295526</v>
@@ -19445,7 +19337,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.850554058138534</v>
+        <v>1.833829173224872</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.001240622447366</v>
@@ -19534,7 +19426,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.857428881732497</v>
+        <v>1.843470519368149</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.94386783783371</v>
@@ -19623,7 +19515,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.857233127943426</v>
+        <v>1.840663125722928</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.640247251160131</v>
@@ -19712,7 +19604,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.859223208642196</v>
+        <v>1.841399102934862</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.773447602825251</v>
@@ -19801,7 +19693,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.847654305727443</v>
+        <v>1.830123366051146</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.632906437918945</v>
@@ -19890,7 +19782,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.850734426033407</v>
+        <v>1.836882966754106</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.219327401138134</v>
@@ -19979,7 +19871,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.845108921086408</v>
+        <v>1.830931438871155</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.830050648618528</v>
@@ -20068,7 +19960,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.849838082318601</v>
+        <v>1.830170436683165</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.010565835031596</v>
@@ -20157,7 +20049,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.848540580626636</v>
+        <v>1.825933681439735</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.457242609077007</v>
@@ -20246,7 +20138,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.849321234007567</v>
+        <v>1.81985613529195</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.671248135498409</v>
@@ -20335,7 +20227,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.848299140956305</v>
+        <v>1.818369409628335</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.82304464795032</v>
@@ -20424,7 +20316,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.836841359685679</v>
+        <v>1.808495182376571</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.811891570732654</v>
@@ -20513,7 +20405,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.832239774157099</v>
+        <v>1.805246038995854</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.289938137912697</v>
@@ -20602,7 +20494,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.829281768237927</v>
+        <v>1.799705194121121</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.734409982160009</v>
@@ -20691,7 +20583,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.823774333126611</v>
+        <v>1.798659194857229</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.915221380205172</v>
@@ -20780,7 +20672,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.830436160999531</v>
+        <v>1.804195424581719</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.542693822352508</v>
@@ -21066,7 +20958,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.915320107524708</v>
+        <v>1.918133131307476</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.999144204683741</v>
@@ -21155,7 +21047,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.920597417111562</v>
+        <v>1.924091074579706</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.804049014312694</v>
@@ -21244,7 +21136,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.936918170205798</v>
+        <v>1.937789967349534</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.929000837432966</v>
@@ -21333,7 +21225,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.930721520875823</v>
+        <v>1.927290199441872</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.921727844475809</v>
@@ -21422,7 +21314,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.932898586773792</v>
+        <v>1.936695665797977</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.886021292017698</v>
@@ -21511,7 +21403,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.931628212382925</v>
+        <v>1.932299806144732</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.137703574672721</v>
@@ -21600,7 +21492,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.930852242290302</v>
+        <v>1.926962482553712</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.542429009967713</v>
@@ -21689,7 +21581,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.935262032713042</v>
+        <v>1.929486898450421</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.393492278015624</v>
@@ -21778,7 +21670,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.920702478878204</v>
+        <v>1.907729605453537</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.076635228066368</v>
@@ -21867,7 +21759,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.913581259018907</v>
+        <v>1.904180538830698</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.222106239464302</v>
@@ -21956,7 +21848,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.910122880939803</v>
+        <v>1.898899332357368</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.565717142651576</v>
@@ -22045,7 +21937,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.911571413134019</v>
+        <v>1.902331202496082</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.064760736740512</v>
@@ -22134,7 +22026,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.907197195348648</v>
+        <v>1.89718537472597</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.016914480851458</v>
@@ -22223,7 +22115,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.90026833057632</v>
+        <v>1.887441482667321</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.257098623599296</v>
@@ -22312,7 +22204,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.896375749541469</v>
+        <v>1.883596753450395</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.027599908593568</v>
@@ -22401,7 +22293,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.90018355563951</v>
+        <v>1.888609603543933</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.333284532600922</v>
@@ -22490,7 +22382,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.882907352172291</v>
+        <v>1.871517471002945</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.781416150826263</v>
@@ -22579,7 +22471,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.882643073586831</v>
+        <v>1.872367913860695</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.715568883045932</v>
@@ -22668,7 +22560,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.884128187496355</v>
+        <v>1.873210955357306</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.354391680589217</v>
@@ -22757,7 +22649,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.879857962461507</v>
+        <v>1.861497350569145</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.137826725301804</v>
@@ -22846,7 +22738,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.878126265240338</v>
+        <v>1.859563663150441</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.276883912741521</v>
@@ -22935,7 +22827,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.8829698677031</v>
+        <v>1.868937186221126</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.664751479536907</v>
@@ -23024,7 +22916,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.874274470689127</v>
+        <v>1.859419555314152</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.57616121856954</v>
@@ -23113,7 +23005,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.887482659482295</v>
+        <v>1.87258010484281</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.661163458186162</v>
@@ -23202,7 +23094,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.888194477061106</v>
+        <v>1.872501778312919</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.586283151884212</v>
@@ -23291,7 +23183,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.884454516982768</v>
+        <v>1.865517865022308</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.430023118176239</v>
@@ -23380,7 +23272,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.879042287164165</v>
+        <v>1.859599913363662</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.662717950138036</v>
@@ -23469,7 +23361,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.872736676193347</v>
+        <v>1.8497481626232</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.688075586822383</v>
@@ -23558,7 +23450,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.871045531361126</v>
+        <v>1.847564350083721</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.277601191514268</v>
@@ -23647,7 +23539,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.871630317416811</v>
+        <v>1.847164109891779</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.130994284218319</v>
@@ -23736,7 +23628,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.875754500275088</v>
+        <v>1.848070970271784</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.71626517999883</v>
@@ -23825,7 +23717,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.883094282603818</v>
+        <v>1.848647850986331</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.062550868377557</v>
@@ -23914,7 +23806,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.880998309103741</v>
+        <v>1.847687372553191</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.945774756714047</v>
@@ -24003,7 +23895,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.887205603244143</v>
+        <v>1.848825589661839</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.39326322721922</v>
@@ -24092,7 +23984,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.887790774143988</v>
+        <v>1.851329452156181</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.993903052281062</v>
@@ -24181,7 +24073,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.878843411816856</v>
+        <v>1.835854648653776</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.593199716756691</v>
@@ -24270,7 +24162,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.876108141347451</v>
+        <v>1.829644733790571</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.226500692179624</v>
@@ -24359,7 +24251,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.883038889317321</v>
+        <v>1.830827859379952</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.993177540908064</v>
@@ -24448,7 +24340,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.883070344210972</v>
+        <v>1.83456175667764</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.851637853908375</v>
@@ -24537,7 +24429,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.887518709403096</v>
+        <v>1.840807681855009</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.702488085428858</v>
@@ -24626,7 +24518,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.898135804044131</v>
+        <v>1.859671186082483</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.730517111846658</v>
@@ -24715,7 +24607,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.896458957941385</v>
+        <v>1.854617966574429</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.63120724743772</v>
@@ -24804,7 +24696,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.911397546998078</v>
+        <v>1.873047120736712</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.081867724431188</v>
@@ -24893,7 +24785,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.913726801735757</v>
+        <v>1.877373206683056</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.524908355993286</v>
@@ -24982,7 +24874,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.921694910907357</v>
+        <v>1.884763148505951</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.341195188971044</v>
@@ -25071,7 +24963,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.923331039861251</v>
+        <v>1.885554606532789</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.09715089118936</v>
@@ -25160,7 +25052,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.928333484151985</v>
+        <v>1.894243222643698</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.644759960517704</v>
@@ -25249,7 +25141,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.918326088042161</v>
+        <v>1.882991616714498</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.278054219894852</v>
@@ -25338,7 +25230,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.90532916004064</v>
+        <v>1.875314308279479</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.71065606147834</v>
@@ -25427,7 +25319,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.901113062334264</v>
+        <v>1.868113525068583</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.362307892798291</v>
@@ -25516,7 +25408,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.905348931640711</v>
+        <v>1.878419147317871</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.122407789909729</v>
@@ -25605,7 +25497,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.901756854164818</v>
+        <v>1.87352841504284</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.394949600502445</v>
@@ -25694,7 +25586,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.894009836684268</v>
+        <v>1.863796445303881</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.159924612487409</v>
@@ -25783,7 +25675,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.884060185073084</v>
+        <v>1.852185649608884</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.319014274944009</v>
@@ -25872,7 +25764,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.878869285350676</v>
+        <v>1.843116717973404</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.726738688367534</v>
@@ -25961,7 +25853,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.871029638278443</v>
+        <v>1.827183153778042</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.42359415316189</v>
@@ -26050,7 +25942,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.862914475466421</v>
+        <v>1.825312239870282</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.80558793217819</v>
@@ -26139,7 +26031,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.858550635831395</v>
+        <v>1.822343508157379</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.581630601746718</v>
@@ -26228,7 +26120,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.861037573230704</v>
+        <v>1.821378461924137</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.158156704385415</v>
@@ -26317,7 +26209,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.852248361008396</v>
+        <v>1.813879750849584</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.617038374445447</v>
@@ -26406,7 +26298,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.845870677458901</v>
+        <v>1.806382651231658</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.515837901630631</v>
@@ -26692,7 +26584,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.418884124382018</v>
+        <v>1.393287599238415</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.924837077390023</v>
@@ -26781,7 +26673,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.439282267617461</v>
+        <v>1.409705440967325</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.855907057839579</v>
@@ -26870,7 +26762,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.436227022903257</v>
+        <v>1.418785607546496</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.372306863220009</v>
@@ -26959,7 +26851,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.40057245474581</v>
+        <v>1.380723225225208</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.29267548478019</v>
@@ -27048,7 +26940,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.391378485566122</v>
+        <v>1.37127823227527</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.142417030726675</v>
@@ -27137,7 +27029,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.391961025497938</v>
+        <v>1.368353553304827</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.305299135787101</v>
@@ -27226,7 +27118,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.393184623106974</v>
+        <v>1.366401164251764</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.206869509042402</v>
@@ -27315,7 +27207,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.394493406014461</v>
+        <v>1.365355459938387</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.404772920360875</v>
@@ -27404,7 +27296,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.386409988334557</v>
+        <v>1.356207343813391</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.42633203032296</v>
@@ -27493,7 +27385,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.369485492048074</v>
+        <v>1.339339171354025</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.404376064716237</v>
@@ -27582,7 +27474,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.365371789440378</v>
+        <v>1.335896812527638</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.423683483863975</v>
@@ -27671,7 +27563,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.371929263322266</v>
+        <v>1.343179882294539</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.356718075390937</v>
@@ -27760,7 +27652,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.374374636953533</v>
+        <v>1.348064105513481</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.364374999035113</v>
@@ -27849,7 +27741,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.356408512730615</v>
+        <v>1.331224181207148</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.334160917702877</v>
@@ -27938,7 +27830,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.342313561276733</v>
+        <v>1.312131546986458</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.362278595933923</v>
@@ -28027,7 +27919,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.337116609010063</v>
+        <v>1.303877748783807</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.364316392405158</v>
@@ -28116,7 +28008,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.323366349763217</v>
+        <v>1.284643071306121</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.462924442038175</v>
@@ -28205,7 +28097,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.323731257595976</v>
+        <v>1.285164158643854</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.294873753139738</v>
@@ -28294,7 +28186,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.324408568630846</v>
+        <v>1.288816394569338</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.32079972286339</v>
@@ -28383,7 +28275,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.311198052915168</v>
+        <v>1.274116937835326</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.230450400131828</v>
@@ -28472,7 +28364,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.305907396817988</v>
+        <v>1.275889298335628</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.075919292640115</v>
@@ -28561,7 +28453,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.309091605263371</v>
+        <v>1.278823406355063</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.211883267093649</v>
@@ -28650,7 +28542,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.299617841199474</v>
+        <v>1.270301225308225</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.158872299328525</v>
@@ -28739,7 +28631,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.297791623700684</v>
+        <v>1.268115076537337</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.208261879351496</v>
@@ -28828,7 +28720,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.303505940189077</v>
+        <v>1.274982068431943</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.158041084982667</v>
@@ -28917,7 +28809,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.303575453197286</v>
+        <v>1.26841203732124</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.167683809393007</v>
@@ -29006,7 +28898,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.293343148677567</v>
+        <v>1.257611982743665</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.240282119229256</v>
@@ -29095,7 +28987,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.288960861013226</v>
+        <v>1.251547473887537</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.136845047663078</v>
@@ -29184,7 +29076,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.295946384564609</v>
+        <v>1.254602397336895</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.202712260818767</v>
@@ -29273,7 +29165,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.298670441813268</v>
+        <v>1.261754448247819</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.167501217219632</v>
@@ -29362,7 +29254,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.304229361341269</v>
+        <v>1.262637535581116</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.170784119721894</v>
@@ -29451,7 +29343,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.310493273414387</v>
+        <v>1.271936398241633</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.225382580113847</v>
@@ -29540,7 +29432,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.310003179139257</v>
+        <v>1.268019902954839</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.141346095265837</v>
@@ -29629,7 +29521,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.327971621449174</v>
+        <v>1.281626938532881</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.346033491414045</v>
@@ -29718,7 +29610,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.338063677291252</v>
+        <v>1.295896336698999</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.587871847284997</v>
@@ -29807,7 +29699,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.32937288537531</v>
+        <v>1.28641020284306</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.670769437470434</v>
@@ -29896,7 +29788,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.342481289232586</v>
+        <v>1.29669775114224</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.581756327112399</v>
@@ -29985,7 +29877,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.342271273987957</v>
+        <v>1.296693121306176</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.50083886678359</v>
@@ -30074,7 +29966,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.342611777212148</v>
+        <v>1.300936827126111</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.531151238266962</v>
@@ -30163,7 +30055,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.348011525809864</v>
+        <v>1.302464609410084</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.642430918341082</v>
@@ -30252,7 +30144,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.356094383121645</v>
+        <v>1.312731213599247</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.343572613615629</v>
@@ -30341,7 +30233,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.34637043220975</v>
+        <v>1.308803575133385</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.511738959475628</v>
@@ -30430,7 +30322,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.344002768762939</v>
+        <v>1.301709837038549</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.622855637965629</v>
@@ -30519,7 +30411,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.346456729841238</v>
+        <v>1.307261170800564</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.691577214611068</v>
@@ -30608,7 +30500,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.350259326155336</v>
+        <v>1.307518969692653</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.794259092595687</v>
@@ -30697,7 +30589,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.360014933941345</v>
+        <v>1.320037317457917</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.496026245925225</v>
@@ -30786,7 +30678,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.368245608986861</v>
+        <v>1.332946398289534</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.675124005776965</v>
@@ -30875,7 +30767,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.355425025814534</v>
+        <v>1.321751973862721</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.564079586490356</v>
@@ -30964,7 +30856,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.34748738439691</v>
+        <v>1.316373375648589</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.521616315492958</v>
@@ -31053,7 +30945,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.338345384168018</v>
+        <v>1.312467210105116</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.652801717551711</v>
@@ -31142,7 +31034,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.306667703826196</v>
+        <v>1.283940902871376</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.106648612550535</v>
@@ -31231,7 +31123,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.295865687332787</v>
+        <v>1.27219756856953</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.074285157737662</v>
@@ -31320,7 +31212,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.299281310000617</v>
+        <v>1.271707832670555</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.186420231706325</v>
@@ -31409,7 +31301,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.293151163610647</v>
+        <v>1.26377208270864</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.228728510651365</v>
@@ -31498,7 +31390,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.28838740728709</v>
+        <v>1.257961072578772</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.184868465807724</v>
@@ -31587,7 +31479,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.28150059470849</v>
+        <v>1.251260222697961</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.102929660533746</v>
@@ -31676,7 +31568,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.280444236171374</v>
+        <v>1.24880608050399</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.096153405003175</v>
@@ -31765,7 +31657,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.271146085717553</v>
+        <v>1.243378335411594</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.168475750507963</v>
@@ -31854,7 +31746,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.261619929098906</v>
+        <v>1.236916492320921</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.079189676761637</v>
@@ -31943,7 +31835,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.254236282235195</v>
+        <v>1.229853768272597</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.061789503719472</v>
@@ -32032,7 +31924,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.246796639671852</v>
+        <v>1.224717276010381</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.042731059891941</v>
@@ -32318,7 +32210,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.778294217973283</v>
+        <v>1.81581846181289</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.899035994387993</v>
@@ -32407,7 +32299,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.789475198882856</v>
+        <v>1.829983514670224</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.984990498924255</v>
@@ -32496,7 +32388,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.845083654483063</v>
+        <v>1.873704773402234</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.952842126109022</v>
@@ -32585,7 +32477,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.819036950463937</v>
+        <v>1.853223808618879</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.96552239979445</v>
@@ -32674,7 +32566,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.818711915185374</v>
+        <v>1.857338567965273</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.693243482616746</v>
@@ -32763,7 +32655,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.820832794944539</v>
+        <v>1.8602788380319</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.778107268128838</v>
@@ -32852,7 +32744,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.822006024511863</v>
+        <v>1.858764230814278</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.733632908427662</v>
@@ -32941,7 +32833,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.856531302512147</v>
+        <v>1.888060070596264</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.81488086092127</v>
@@ -33030,7 +32922,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.832777715749996</v>
+        <v>1.859717762077964</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.652163654469117</v>
@@ -33119,7 +33011,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.819050048995152</v>
+        <v>1.85374590202675</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.881731587032445</v>
@@ -33208,7 +33100,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.810062342283557</v>
+        <v>1.843554361260107</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.897643396422381</v>
@@ -33297,7 +33189,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.825185409972926</v>
+        <v>1.857429074354858</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.836007222109861</v>
@@ -33386,7 +33278,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.825942606149419</v>
+        <v>1.855881057097188</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.866544369769376</v>
@@ -33475,7 +33367,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.821674465097909</v>
+        <v>1.84957686675958</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.823594234735716</v>
@@ -33564,7 +33456,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.801584367475889</v>
+        <v>1.832601497765196</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.816727087676215</v>
@@ -33653,7 +33545,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.828538298265888</v>
+        <v>1.855193509512041</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.799800703180282</v>
@@ -33742,7 +33634,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.795319124721569</v>
+        <v>1.82383363688661</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.86934422024295</v>
@@ -33831,7 +33723,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.794605559887153</v>
+        <v>1.823761814639151</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.637790889205844</v>
@@ -33920,7 +33812,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.811330496548857</v>
+        <v>1.832692221643249</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.790442160864442</v>
@@ -34009,7 +33901,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.791722267646574</v>
+        <v>1.810832493382919</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.045534460382282</v>
@@ -34098,7 +33990,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.789167616199852</v>
+        <v>1.807436354381891</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.757282736562332</v>
@@ -34187,7 +34079,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.796612396367189</v>
+        <v>1.817511550743207</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.910265113233845</v>
@@ -34276,7 +34168,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.768834246793993</v>
+        <v>1.791452705252183</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.702596715445462</v>
@@ -34365,7 +34257,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.802499088711712</v>
+        <v>1.820832821663691</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.752895244174555</v>
@@ -34454,7 +34346,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.80066633328562</v>
+        <v>1.815917701487113</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.790445502469826</v>
@@ -34543,7 +34435,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.801890249619902</v>
+        <v>1.810557013782814</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.789620684005638</v>
@@ -34632,7 +34524,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.797990543130521</v>
+        <v>1.803658461528116</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.815362892260648</v>
@@ -34721,7 +34613,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.765927170174021</v>
+        <v>1.775981347411672</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.803729905914279</v>
@@ -34810,7 +34702,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.748150803004935</v>
+        <v>1.755762071285282</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.842183363940112</v>
@@ -34899,7 +34791,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.723969429820842</v>
+        <v>1.739759477067779</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.515256799945945</v>
@@ -34988,7 +34880,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.723832756898037</v>
+        <v>1.739700400403681</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.826156605026173</v>
@@ -35077,7 +34969,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.740464270713679</v>
+        <v>1.753599280670422</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.689931786532048</v>
@@ -35166,7 +35058,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.739384433317214</v>
+        <v>1.75131328715629</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.604238812661318</v>
@@ -35255,7 +35147,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.756817053462401</v>
+        <v>1.765033435833401</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.716575452959371</v>
@@ -35344,7 +35236,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.763498636581186</v>
+        <v>1.773674858531913</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.681818815380299</v>
@@ -35433,7 +35325,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.73545593276522</v>
+        <v>1.74724624995258</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.600974518888747</v>
@@ -35522,7 +35414,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.729347919943457</v>
+        <v>1.737454515137735</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.815106811101746</v>
@@ -35611,7 +35503,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.75846635831522</v>
+        <v>1.76674351734594</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.013630574692741</v>
@@ -35700,7 +35592,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.759039885389478</v>
+        <v>1.768898810586156</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.782277176241196</v>
@@ -35789,7 +35681,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.761112791930464</v>
+        <v>1.771130530086855</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.667770054050306</v>
@@ -35878,7 +35770,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.770129444428262</v>
+        <v>1.786293220775917</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.817437209395191</v>
@@ -35967,7 +35859,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.758750269638032</v>
+        <v>1.775305821524042</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.761107768320192</v>
@@ -36056,7 +35948,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.79281278813171</v>
+        <v>1.805135145589878</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.142864707271827</v>
@@ -36145,7 +36037,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.80366839582933</v>
+        <v>1.812622912624948</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.039314720969998</v>
@@ -36234,7 +36126,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.851579083589092</v>
+        <v>1.855151965902619</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.317323864250608</v>
@@ -36323,7 +36215,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.853167193293038</v>
+        <v>1.857705873958132</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.06328156759532</v>
@@ -36412,7 +36304,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.86991885478973</v>
+        <v>1.874216417641833</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.855430204152714</v>
@@ -36501,7 +36393,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.848534930646618</v>
+        <v>1.850580347405824</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.835477363318638</v>
@@ -36590,7 +36482,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.813677845641984</v>
+        <v>1.823615321645352</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.836697123100352</v>
@@ -36679,7 +36571,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.772295166923008</v>
+        <v>1.795410689523914</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.774892721923312</v>
@@ -36768,7 +36660,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.802453121024235</v>
+        <v>1.826326347648653</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.647445619557629</v>
@@ -36857,7 +36749,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.805651734771614</v>
+        <v>1.82408935452686</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.712846063153909</v>
@@ -36946,7 +36838,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.770846360934732</v>
+        <v>1.79073500883501</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.907128373535841</v>
@@ -37035,7 +36927,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.764955228376349</v>
+        <v>1.784806642708862</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.836414603169811</v>
@@ -37124,7 +37016,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.759809832202658</v>
+        <v>1.779635352227646</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.552088997952368</v>
@@ -37213,7 +37105,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.740045763629629</v>
+        <v>1.7608848937623</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.666790777933112</v>
@@ -37302,7 +37194,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.74710905138479</v>
+        <v>1.769389449109017</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.675371254912055</v>
@@ -37391,7 +37283,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.742131409414525</v>
+        <v>1.767137623669085</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.840628630523602</v>
@@ -37480,7 +37372,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.766448352882623</v>
+        <v>1.789948750525445</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.759394064806992</v>
@@ -37569,7 +37461,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.750859285314748</v>
+        <v>1.770859491210751</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.829088660984767</v>
@@ -37658,7 +37550,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.749067152304683</v>
+        <v>1.768776424612638</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.734241888603266</v>
